--- a/starter-analysis-exercise/data/raw-data/exampledata.xlsx
+++ b/starter-analysis-exercise/data/raw-data/exampledata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1B0400-91DC-4479-905F-9A91D902E8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F94D584-C773-446B-ADB7-B9DD283DD413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="945" windowWidth="48840" windowHeight="21645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
